--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="154">
   <si>
     <t>用例编号</t>
   </si>
@@ -1232,6 +1232,10 @@
   </si>
   <si>
     <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1749,18 +1753,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,11 +1862,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1956,9 +1964,10 @@
       <c r="AF2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2055,9 +2064,10 @@
       <c r="AF3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2154,9 +2164,10 @@
       <c r="AF4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2253,13 +2264,35 @@
       <c r="AF5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -2836,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2853,11 +2886,12 @@
     <col min="22" max="22" width="6" style="4" customWidth="1"/>
     <col min="23" max="26" width="6" style="5" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="21" customWidth="1"/>
-    <col min="28" max="28" width="6.625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="9"/>
+    <col min="28" max="28" width="13.5" style="4" customWidth="1"/>
+    <col min="29" max="29" width="6.625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2939,11 +2973,14 @@
       <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>132</v>
       </c>
@@ -3025,9 +3062,10 @@
       <c r="AA2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -3055,9 +3093,10 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3085,9 +3124,10 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3115,9 +3155,10 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3145,9 +3186,10 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3175,9 +3217,10 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3205,9 +3248,10 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3235,9 +3279,10 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3265,9 +3310,10 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3295,9 +3341,10 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3325,9 +3372,10 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3356,8 +3404,9 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3386,8 +3435,9 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3416,8 +3466,9 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3446,8 +3497,9 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3476,8 +3528,9 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3506,8 +3559,9 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3536,6 +3590,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3543,7 +3598,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V13:V1048576 U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V13:V1048576 U1:U1048576 AB3:AB1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
@@ -3558,15 +3613,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="28" max="28" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,11 +3706,14 @@
       <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>132</v>
       </c>
@@ -3734,7 +3795,38 @@
       <c r="AA2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" s="7"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="7"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="AB12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3742,7 +3834,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U2 AB3:AB1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
@@ -3756,10 +3848,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -3775,11 +3867,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="21" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3876,11 +3969,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3913,9 +4009,10 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="20"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3948,9 +4045,10 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="20"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3983,9 +4081,10 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="20"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4018,9 +4117,10 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="20"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4053,9 +4153,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="20"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4088,9 +4189,10 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="20"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4123,9 +4225,10 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="20"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4158,9 +4261,10 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="20"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4193,9 +4297,10 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="20"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4228,9 +4333,10 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="20"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4263,9 +4369,10 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="20"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4299,8 +4406,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4334,8 +4442,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4369,8 +4478,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4404,8 +4514,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4439,8 +4550,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4474,8 +4586,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4509,11 +4622,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -977,10 +977,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>选择结构单元；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Button3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1203,14 +1199,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>均  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>极  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1236,6 +1224,18 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>均  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
@@ -1863,7 +1863,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2327,40 +2327,40 @@
     <row r="1" spans="1:17" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>84</v>
@@ -2369,7 +2369,7 @@
         <v>85</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>65</v>
@@ -2380,46 +2380,46 @@
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>86</v>
@@ -2433,52 +2433,52 @@
         <v>67</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="L3" s="22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>87</v>
       </c>
       <c r="O3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="54.75" customHeight="1">
@@ -2486,52 +2486,52 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="N4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>92</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="54.75" customHeight="1">
@@ -2539,52 +2539,52 @@
         <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="Q5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1">
@@ -2642,214 +2642,214 @@
     </row>
     <row r="7" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" s="22" t="s">
+      <c r="O7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="P7" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="40.5" customHeight="1"/>
@@ -2902,40 +2902,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>84</v>
@@ -2944,7 +2944,7 @@
         <v>85</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>65</v>
@@ -2974,7 +2974,7 @@
         <v>81</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>70</v>
@@ -2982,37 +2982,37 @@
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="14">
         <v>20</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="J2" s="14">
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="14">
         <v>2</v>
@@ -3021,46 +3021,46 @@
         <v>2</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="7"/>
@@ -3635,40 +3635,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>84</v>
@@ -3677,7 +3677,7 @@
         <v>85</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>65</v>
@@ -3707,7 +3707,7 @@
         <v>81</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>70</v>
@@ -3715,37 +3715,37 @@
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="14">
         <v>20</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="14">
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="14">
         <v>2</v>
@@ -3754,46 +3754,46 @@
         <v>2</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="7"/>
@@ -3970,7 +3970,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属加筋板强度校核.xlsx
@@ -913,10 +913,6 @@
     <t>操作子窗口标题</t>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果等待时间</t>
   </si>
   <si>
@@ -1236,6 +1232,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1857,13 +1857,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="7"/>
@@ -1975,7 +1975,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="4"/>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="4"/>
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="4"/>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2327,49 +2327,49 @@
     <row r="1" spans="1:17" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>65</v>
@@ -2380,52 +2380,52 @@
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="D2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="54.75" customHeight="1">
@@ -2433,52 +2433,52 @@
         <v>67</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="L3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="54.75" customHeight="1">
@@ -2486,105 +2486,105 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="N4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="54.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="Q5" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1">
@@ -2642,214 +2642,214 @@
     </row>
     <row r="7" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="22" t="s">
+      <c r="O7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="P7" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="25" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="40.5" customHeight="1"/>
@@ -2902,49 +2902,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>65</v>
@@ -2968,13 +2968,13 @@
         <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>70</v>
@@ -2982,37 +2982,37 @@
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="14">
         <v>20</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="J2" s="14">
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="14">
         <v>2</v>
@@ -3021,46 +3021,46 @@
         <v>2</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="7"/>
@@ -3635,49 +3635,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>65</v>
@@ -3701,13 +3701,13 @@
         <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>70</v>
@@ -3715,37 +3715,37 @@
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="14">
         <v>1.5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="14">
         <v>20</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="14">
         <v>1.6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="14">
         <v>2</v>
@@ -3754,46 +3754,46 @@
         <v>2</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="7"/>
@@ -3964,13 +3964,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
